--- a/Net4.5/MIS.Web/MIS.Web/Template/员工信息录入表格模板.xlsx
+++ b/Net4.5/MIS.Web/MIS.Web/Template/员工信息录入表格模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="员工列表" sheetId="2" r:id="rId1"/>
@@ -14,32 +14,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>序号</t>
   </si>
   <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
     <t>工号</t>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
     <t>部门</t>
   </si>
   <si>
     <t>性别</t>
   </si>
   <si>
+    <t>民族</t>
+  </si>
+  <si>
     <t>身份证</t>
   </si>
   <si>
-    <t>电话</t>
-  </si>
-  <si>
     <t>出生日期</t>
   </si>
   <si>
+    <t>学历</t>
+  </si>
+  <si>
+    <t>工作年限</t>
+  </si>
+  <si>
+    <t>政治面貌</t>
+  </si>
+  <si>
+    <t>婚姻状况</t>
+  </si>
+  <si>
+    <t>籍贯</t>
+  </si>
+  <si>
+    <t>现居住地</t>
+  </si>
+  <si>
+    <t>户口所在地</t>
+  </si>
+  <si>
+    <t>人才来源</t>
+  </si>
+  <si>
     <t>工资卡</t>
   </si>
   <si>
@@ -59,6 +86,15 @@
   </si>
   <si>
     <t>紧急联系人电话</t>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>合同起始日</t>
+  </si>
+  <si>
+    <t>合同结束日</t>
   </si>
 </sst>
 </file>
@@ -66,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,40 +115,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,15 +196,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,90 +265,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,13 +275,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,169 +437,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,15 +466,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,16 +488,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,28 +517,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,156 +546,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -733,7 +772,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -763,6 +802,7 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
+      <protection locked="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -770,6 +810,11 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
@@ -792,6 +837,39 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="183" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="187" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="188" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="189" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="190" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="191" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="192" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="193" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="194" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -804,24 +882,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0">
-  <autoFilter ref="A1:O2"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA8" totalsRowShown="0">
+  <autoFilter ref="A1:AA8"/>
+  <tableColumns count="27">
     <tableColumn id="1" name="序号" dataDxfId="0"/>
-    <tableColumn id="2" name="工号" dataDxfId="1"/>
-    <tableColumn id="3" name="姓名" dataDxfId="2"/>
-    <tableColumn id="4" name="部门" dataDxfId="3"/>
-    <tableColumn id="5" name="性别" dataDxfId="4"/>
-    <tableColumn id="6" name="身份证" dataDxfId="5"/>
-    <tableColumn id="7" name="电话" dataDxfId="6"/>
-    <tableColumn id="8" name="出生日期" dataDxfId="7"/>
-    <tableColumn id="9" name="工资卡" dataDxfId="8"/>
-    <tableColumn id="10" name="状态" dataDxfId="9"/>
-    <tableColumn id="11" name="入职日期" dataDxfId="10"/>
-    <tableColumn id="12" name="转正日期" dataDxfId="11"/>
-    <tableColumn id="13" name="离职日期" dataDxfId="12"/>
-    <tableColumn id="14" name="紧急联系人" dataDxfId="13"/>
-    <tableColumn id="15" name="紧急联系人电话" dataDxfId="14"/>
+    <tableColumn id="2" name="姓名" dataDxfId="1"/>
+    <tableColumn id="3" name="电话" dataDxfId="2"/>
+    <tableColumn id="4" name="工号" dataDxfId="3"/>
+    <tableColumn id="5" name="部门" dataDxfId="4"/>
+    <tableColumn id="6" name="性别" dataDxfId="5"/>
+    <tableColumn id="7" name="民族" dataDxfId="6"/>
+    <tableColumn id="8" name="身份证" dataDxfId="7"/>
+    <tableColumn id="9" name="出生日期" dataDxfId="8"/>
+    <tableColumn id="10" name="学历" dataDxfId="9"/>
+    <tableColumn id="11" name="工作年限" dataDxfId="10"/>
+    <tableColumn id="12" name="政治面貌" dataDxfId="11"/>
+    <tableColumn id="13" name="婚姻状况" dataDxfId="12"/>
+    <tableColumn id="14" name="籍贯" dataDxfId="13"/>
+    <tableColumn id="15" name="现居住地" dataDxfId="14"/>
+    <tableColumn id="16" name="户口所在地" dataDxfId="15"/>
+    <tableColumn id="17" name="人才来源" dataDxfId="16"/>
+    <tableColumn id="18" name="工资卡" dataDxfId="17"/>
+    <tableColumn id="19" name="状态" dataDxfId="18"/>
+    <tableColumn id="20" name="入职日期" dataDxfId="19"/>
+    <tableColumn id="21" name="转正日期" dataDxfId="20"/>
+    <tableColumn id="22" name="离职日期" dataDxfId="21"/>
+    <tableColumn id="23" name="紧急联系人" dataDxfId="22"/>
+    <tableColumn id="24" name="紧急联系人电话" dataDxfId="23"/>
+    <tableColumn id="25" name="合同编号" dataDxfId="24"/>
+    <tableColumn id="26" name="合同起始日" dataDxfId="25"/>
+    <tableColumn id="27" name="合同结束日" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1112,28 +1202,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.16666666666667" customWidth="1"/>
-    <col min="2" max="2" width="10.8166666666667" customWidth="1"/>
-    <col min="3" max="5" width="9.16666666666667" customWidth="1"/>
-    <col min="6" max="6" width="16.7083333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.5166666666667" customWidth="1"/>
-    <col min="8" max="8" width="13.775" customWidth="1"/>
-    <col min="9" max="9" width="11.4666666666667" customWidth="1"/>
+    <col min="1" max="2" width="9.16666666666667" customWidth="1"/>
+    <col min="3" max="3" width="13.5166666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.8166666666667" customWidth="1"/>
+    <col min="5" max="5" width="9.16666666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.16666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.16666666666667" customWidth="1"/>
+    <col min="8" max="8" width="20.95" customWidth="1"/>
+    <col min="9" max="9" width="13.775" customWidth="1"/>
     <col min="10" max="10" width="9.16666666666667" customWidth="1"/>
     <col min="11" max="13" width="13.775" customWidth="1"/>
-    <col min="14" max="14" width="16.075" customWidth="1"/>
-    <col min="15" max="15" width="20.6833333333333" customWidth="1"/>
+    <col min="14" max="14" width="11.0583333333333" customWidth="1"/>
+    <col min="15" max="15" width="31.8" customWidth="1"/>
+    <col min="16" max="16" width="27.1916666666667" customWidth="1"/>
+    <col min="17" max="17" width="13.775" customWidth="1"/>
+    <col min="18" max="18" width="11.4666666666667" customWidth="1"/>
+    <col min="19" max="19" width="9.16666666666667" customWidth="1"/>
+    <col min="20" max="22" width="13.775" customWidth="1"/>
+    <col min="23" max="23" width="16.075" customWidth="1"/>
+    <col min="24" max="24" width="20.6833333333333" customWidth="1"/>
+    <col min="25" max="25" width="13.775" customWidth="1"/>
+    <col min="26" max="27" width="16.075" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1179,16 +1279,98 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="8:13">
-      <c r="H2" s="1"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+    <row r="2" spans="9:9">
+      <c r="I2" s="2">
+        <v>40452</v>
+      </c>
+    </row>
+    <row r="3" spans="6:22">
+      <c r="F3"/>
+      <c r="I3" s="2"/>
+      <c r="J3"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="9:27">
+      <c r="I4" s="2"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="V4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="9:9">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="9:9">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="9:9">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="9:9">
+      <c r="I8" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>"小学,初中,中专,高中,专科,本科,硕士,博士"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"群众,共青团,党员"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"未婚,已婚,离异"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
+      <formula1>"试用期,转正,离职"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
